--- a/data/pca/factorExposure/factorExposure_2016-02-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-02-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01277291481353167</v>
+        <v>0.0163086064311282</v>
       </c>
       <c r="C2">
-        <v>-0.05888838297432559</v>
+        <v>0.0456524349013073</v>
       </c>
       <c r="D2">
-        <v>0.06437598342767148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.08085810817415595</v>
+      </c>
+      <c r="E2">
+        <v>0.1234837981016826</v>
+      </c>
+      <c r="F2">
+        <v>-0.03596283638426961</v>
+      </c>
+      <c r="G2">
+        <v>-0.03866648819505052</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.03462417193127974</v>
+        <v>0.02130446227322787</v>
       </c>
       <c r="C3">
-        <v>-0.1216410324163601</v>
+        <v>0.06379818701751849</v>
       </c>
       <c r="D3">
-        <v>0.07185608523480312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07866291163615405</v>
+      </c>
+      <c r="E3">
+        <v>0.09337665291695096</v>
+      </c>
+      <c r="F3">
+        <v>0.03144714557828142</v>
+      </c>
+      <c r="G3">
+        <v>-0.09902115387197136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06092842003609956</v>
+        <v>0.06161029826953542</v>
       </c>
       <c r="C4">
-        <v>-0.06401846236882162</v>
+        <v>0.06439548069339006</v>
       </c>
       <c r="D4">
-        <v>0.04642858137159828</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08074301434935517</v>
+      </c>
+      <c r="E4">
+        <v>0.1083348071501446</v>
+      </c>
+      <c r="F4">
+        <v>0.0346658967902467</v>
+      </c>
+      <c r="G4">
+        <v>0.03856987975032376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.04363967185229948</v>
+        <v>0.04090262311626585</v>
       </c>
       <c r="C6">
-        <v>-0.03877427481169805</v>
+        <v>0.02913578274753462</v>
       </c>
       <c r="D6">
-        <v>0.04194688741089107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.08202250965557766</v>
+      </c>
+      <c r="E6">
+        <v>0.09708656700230181</v>
+      </c>
+      <c r="F6">
+        <v>0.02373474017097459</v>
+      </c>
+      <c r="G6">
+        <v>-0.00318834901343374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.03103957882785987</v>
+        <v>0.02360186164847744</v>
       </c>
       <c r="C7">
-        <v>-0.03369075476266961</v>
+        <v>0.03568159092263862</v>
       </c>
       <c r="D7">
-        <v>0.03216438173123369</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.06306265870565395</v>
+      </c>
+      <c r="E7">
+        <v>0.08648586668438689</v>
+      </c>
+      <c r="F7">
+        <v>0.01146238568509252</v>
+      </c>
+      <c r="G7">
+        <v>0.06229582866909521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.01091961375388214</v>
+        <v>0.009042878649829817</v>
       </c>
       <c r="C8">
-        <v>-0.04844298072819292</v>
+        <v>0.03903547755357255</v>
       </c>
       <c r="D8">
-        <v>0.03634220677780474</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.05296111529720767</v>
+      </c>
+      <c r="E8">
+        <v>0.0687624520799288</v>
+      </c>
+      <c r="F8">
+        <v>0.01453151881120027</v>
+      </c>
+      <c r="G8">
+        <v>-0.01308901810889602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.04168420391222136</v>
+        <v>0.04434893647679143</v>
       </c>
       <c r="C9">
-        <v>-0.04605715902173336</v>
+        <v>0.05127186884059293</v>
       </c>
       <c r="D9">
-        <v>0.03980625125729323</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06795423707339514</v>
+      </c>
+      <c r="E9">
+        <v>0.0864835340924297</v>
+      </c>
+      <c r="F9">
+        <v>0.009954641497786956</v>
+      </c>
+      <c r="G9">
+        <v>0.0459809623645542</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.08074048125195205</v>
+        <v>0.105944177598615</v>
       </c>
       <c r="C10">
-        <v>0.1863049830399184</v>
+        <v>-0.1999679745935989</v>
       </c>
       <c r="D10">
-        <v>0.01142099785315006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.005481103358807192</v>
+      </c>
+      <c r="E10">
+        <v>0.0431640374325893</v>
+      </c>
+      <c r="F10">
+        <v>0.002811614076438226</v>
+      </c>
+      <c r="G10">
+        <v>0.03147381697077159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04574577615110766</v>
+        <v>0.03876282490327446</v>
       </c>
       <c r="C11">
-        <v>-0.05324676045308169</v>
+        <v>0.04903470098569856</v>
       </c>
       <c r="D11">
-        <v>0.03078377206242183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.04419785458907476</v>
+      </c>
+      <c r="E11">
+        <v>0.03694702528070849</v>
+      </c>
+      <c r="F11">
+        <v>0.01294136225229985</v>
+      </c>
+      <c r="G11">
+        <v>0.04204319626598341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.04910456210543759</v>
+        <v>0.04120721721225941</v>
       </c>
       <c r="C12">
-        <v>-0.04740501507962364</v>
+        <v>0.04718580664047066</v>
       </c>
       <c r="D12">
-        <v>0.01359091551181948</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.03707895709926532</v>
+      </c>
+      <c r="E12">
+        <v>0.04810244169761637</v>
+      </c>
+      <c r="F12">
+        <v>0.005790078082255663</v>
+      </c>
+      <c r="G12">
+        <v>0.03649659705837179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01727299206873356</v>
+        <v>0.01710312578658924</v>
       </c>
       <c r="C13">
-        <v>-0.0568693658007913</v>
+        <v>0.04443678034725543</v>
       </c>
       <c r="D13">
-        <v>0.02793869207979477</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.07552185302888305</v>
+      </c>
+      <c r="E13">
+        <v>0.130399276531848</v>
+      </c>
+      <c r="F13">
+        <v>0.02026637945768206</v>
+      </c>
+      <c r="G13">
+        <v>0.04887145761404408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.01691467660112811</v>
+        <v>0.009611709522376711</v>
       </c>
       <c r="C14">
-        <v>-0.03095940452310088</v>
+        <v>0.03009660801518314</v>
       </c>
       <c r="D14">
-        <v>0.01624654331496349</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.04867630642758712</v>
+      </c>
+      <c r="E14">
+        <v>0.08178060375809545</v>
+      </c>
+      <c r="F14">
+        <v>-0.01137866061716019</v>
+      </c>
+      <c r="G14">
+        <v>0.03588716921972217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0004923561472353976</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.006505638349861885</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.01172286332297648</v>
+      </c>
+      <c r="E15">
+        <v>0.01206729935151269</v>
+      </c>
+      <c r="F15">
+        <v>-0.0006917377694321842</v>
+      </c>
+      <c r="G15">
+        <v>-0.0005997787566622708</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.04474968007248423</v>
+        <v>0.0378763222979317</v>
       </c>
       <c r="C16">
-        <v>-0.05038931800776443</v>
+        <v>0.04665552993675132</v>
       </c>
       <c r="D16">
-        <v>0.01984935520129742</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.04005380993214629</v>
+      </c>
+      <c r="E16">
+        <v>0.05070864007937208</v>
+      </c>
+      <c r="F16">
+        <v>-0.005130748563039718</v>
+      </c>
+      <c r="G16">
+        <v>0.03361301698861873</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.02576357781454399</v>
+        <v>0.01807070302042451</v>
       </c>
       <c r="C19">
-        <v>-0.05970890375285829</v>
+        <v>0.04477759614684429</v>
       </c>
       <c r="D19">
-        <v>0.09143130993124235</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1029596827658636</v>
+      </c>
+      <c r="E19">
+        <v>0.1229140313951878</v>
+      </c>
+      <c r="F19">
+        <v>-0.01596628854878881</v>
+      </c>
+      <c r="G19">
+        <v>-0.005561764300886248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.02281729983220114</v>
+        <v>0.01801763292899966</v>
       </c>
       <c r="C20">
-        <v>-0.05022396121303083</v>
+        <v>0.04180071567560682</v>
       </c>
       <c r="D20">
-        <v>0.02367435582357887</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.05631850593936767</v>
+      </c>
+      <c r="E20">
+        <v>0.09898567097113904</v>
+      </c>
+      <c r="F20">
+        <v>0.003588842252320538</v>
+      </c>
+      <c r="G20">
+        <v>0.02139783144165801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.02215962117668313</v>
+        <v>0.0174766033318948</v>
       </c>
       <c r="C21">
-        <v>-0.05880582518012537</v>
+        <v>0.04817311877380518</v>
       </c>
       <c r="D21">
-        <v>0.043456710966271</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.08352589465496385</v>
+      </c>
+      <c r="E21">
+        <v>0.1512987239305466</v>
+      </c>
+      <c r="F21">
+        <v>-0.0215275579841347</v>
+      </c>
+      <c r="G21">
+        <v>0.06293041236532762</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.0007087284469775423</v>
+        <v>0.005272050555019428</v>
       </c>
       <c r="C22">
-        <v>-0.01445787067692217</v>
+        <v>0.03079759599035829</v>
       </c>
       <c r="D22">
-        <v>0.02640500093974543</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0690409509241687</v>
+      </c>
+      <c r="E22">
+        <v>0.07668808260622186</v>
+      </c>
+      <c r="F22">
+        <v>0.06774845506386422</v>
+      </c>
+      <c r="G22">
+        <v>-0.04538281252176857</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.0007126749400175104</v>
+        <v>0.005391884123642821</v>
       </c>
       <c r="C23">
-        <v>-0.01447926745552236</v>
+        <v>0.03085504414657129</v>
       </c>
       <c r="D23">
-        <v>0.02628039798792439</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.06836532503326664</v>
+      </c>
+      <c r="E23">
+        <v>0.07685272501020093</v>
+      </c>
+      <c r="F23">
+        <v>0.06773708731930786</v>
+      </c>
+      <c r="G23">
+        <v>-0.04467617862913766</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.0414859270527931</v>
+        <v>0.03882528037598757</v>
       </c>
       <c r="C24">
-        <v>-0.05139945483556042</v>
+        <v>0.05458901758752841</v>
       </c>
       <c r="D24">
-        <v>0.02406154032142597</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.04121528796422852</v>
+      </c>
+      <c r="E24">
+        <v>0.05570897973646437</v>
+      </c>
+      <c r="F24">
+        <v>-0.0004948148698454602</v>
+      </c>
+      <c r="G24">
+        <v>0.04859756827955328</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.05175528108921844</v>
+        <v>0.04520184263212602</v>
       </c>
       <c r="C25">
-        <v>-0.05613227425171309</v>
+        <v>0.05473663218124301</v>
       </c>
       <c r="D25">
-        <v>0.01929806499322653</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.03794251398215797</v>
+      </c>
+      <c r="E25">
+        <v>0.04871479451320629</v>
+      </c>
+      <c r="F25">
+        <v>0.01562892810228624</v>
+      </c>
+      <c r="G25">
+        <v>0.05165019002858554</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02330870735240582</v>
+        <v>0.0196194252437233</v>
       </c>
       <c r="C26">
-        <v>-0.0155848151979787</v>
+        <v>0.01770726524302636</v>
       </c>
       <c r="D26">
-        <v>0.02196317003654354</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04292824448292091</v>
+      </c>
+      <c r="E26">
+        <v>0.06515876590311122</v>
+      </c>
+      <c r="F26">
+        <v>-0.01233360347962986</v>
+      </c>
+      <c r="G26">
+        <v>0.01120317549626296</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1312,226 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1013109857345295</v>
+        <v>0.1451689248503974</v>
       </c>
       <c r="C28">
-        <v>0.2574770604741644</v>
+        <v>-0.2576335308969329</v>
       </c>
       <c r="D28">
-        <v>-0.002150303076191981</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02068149695575188</v>
+      </c>
+      <c r="E28">
+        <v>0.06805891082228402</v>
+      </c>
+      <c r="F28">
+        <v>0.002623843271232478</v>
+      </c>
+      <c r="G28">
+        <v>0.06665293355353365</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01147856425247717</v>
+        <v>0.008507902029689176</v>
       </c>
       <c r="C29">
-        <v>-0.0270910599577634</v>
+        <v>0.02711030700441722</v>
       </c>
       <c r="D29">
-        <v>0.006761166206109991</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.04123638819564979</v>
+      </c>
+      <c r="E29">
+        <v>0.08139180240746088</v>
+      </c>
+      <c r="F29">
+        <v>-0.0004472848522717647</v>
+      </c>
+      <c r="G29">
+        <v>0.04366388725541361</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.0431556046896289</v>
+        <v>0.04424555913060724</v>
       </c>
       <c r="C30">
-        <v>-0.04586381069180204</v>
+        <v>0.05545191375417815</v>
       </c>
       <c r="D30">
-        <v>0.09913578810800677</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1284095135088922</v>
+      </c>
+      <c r="E30">
+        <v>0.108415784916434</v>
+      </c>
+      <c r="F30">
+        <v>0.003023296704480376</v>
+      </c>
+      <c r="G30">
+        <v>-0.0215095142966464</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.06789438802903565</v>
+        <v>0.06385269719002502</v>
       </c>
       <c r="C31">
-        <v>-0.04994533324331821</v>
+        <v>0.06287598359053083</v>
       </c>
       <c r="D31">
-        <v>-0.02197626829542199</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.00742858605216832</v>
+      </c>
+      <c r="E31">
+        <v>0.08002769828653017</v>
+      </c>
+      <c r="F31">
+        <v>0.04256684340936102</v>
+      </c>
+      <c r="G31">
+        <v>0.03413709505055914</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.0004314256573361521</v>
+        <v>0.007109741202765014</v>
       </c>
       <c r="C32">
-        <v>-0.03723039239953037</v>
+        <v>0.03416322266325338</v>
       </c>
       <c r="D32">
-        <v>0.04310608401594575</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05940029711012466</v>
+      </c>
+      <c r="E32">
+        <v>0.1042687631924563</v>
+      </c>
+      <c r="F32">
+        <v>-0.02666988801854635</v>
+      </c>
+      <c r="G32">
+        <v>0.06119796697367159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.03856497855098303</v>
+        <v>0.03146874505162157</v>
       </c>
       <c r="C33">
-        <v>-0.05820140049751196</v>
+        <v>0.05213955469673117</v>
       </c>
       <c r="D33">
-        <v>0.06522352628128202</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.09699059698876092</v>
+      </c>
+      <c r="E33">
+        <v>0.1063745824786915</v>
+      </c>
+      <c r="F33">
+        <v>0.01865809460824937</v>
+      </c>
+      <c r="G33">
+        <v>0.03845472080446439</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04493164409592028</v>
+        <v>0.04006351685372388</v>
       </c>
       <c r="C34">
-        <v>-0.06534886994252942</v>
+        <v>0.06318896070103</v>
       </c>
       <c r="D34">
-        <v>0.03557687512691237</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04673026552418581</v>
+      </c>
+      <c r="E34">
+        <v>0.03866475798788985</v>
+      </c>
+      <c r="F34">
+        <v>0.002747239512607551</v>
+      </c>
+      <c r="G34">
+        <v>0.05468733880900553</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>6.095737609544796e-05</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0005303273735913222</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.0004335739238583148</v>
+      </c>
+      <c r="E35">
+        <v>-0.0004853198771319299</v>
+      </c>
+      <c r="F35">
+        <v>-7.095915446315528e-05</v>
+      </c>
+      <c r="G35">
+        <v>4.883472022929806e-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02363103827136115</v>
+        <v>0.01937668603782601</v>
       </c>
       <c r="C36">
-        <v>-0.01825917714277973</v>
+        <v>0.01545564148849494</v>
       </c>
       <c r="D36">
-        <v>0.01505815056935158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04436906299215527</v>
+      </c>
+      <c r="E36">
+        <v>0.07442874365105839</v>
+      </c>
+      <c r="F36">
+        <v>0.00300625205656299</v>
+      </c>
+      <c r="G36">
+        <v>0.03389487802703055</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03369911199342374</v>
+        <v>0.02524984826439443</v>
       </c>
       <c r="C38">
-        <v>-0.03303305506635731</v>
+        <v>0.02633303068519141</v>
       </c>
       <c r="D38">
-        <v>-0.001116237890077727</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.03723289211389058</v>
+      </c>
+      <c r="E38">
+        <v>0.06311854448592846</v>
+      </c>
+      <c r="F38">
+        <v>0.005937808061583266</v>
+      </c>
+      <c r="G38">
+        <v>-0.01197060789096466</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.05398110092816173</v>
+        <v>0.04620494353318189</v>
       </c>
       <c r="C39">
-        <v>-0.06278561272231145</v>
+        <v>0.06374281613100384</v>
       </c>
       <c r="D39">
-        <v>0.04032069045480696</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.07261024554069612</v>
+      </c>
+      <c r="E39">
+        <v>0.06153982157793134</v>
+      </c>
+      <c r="F39">
+        <v>-0.01892801422613642</v>
+      </c>
+      <c r="G39">
+        <v>0.03400687114230214</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01464282689118493</v>
+        <v>0.01662440506355903</v>
       </c>
       <c r="C40">
-        <v>-0.05720941937772464</v>
+        <v>0.04199057086960587</v>
       </c>
       <c r="D40">
-        <v>0.02047986737678803</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.05006054604555992</v>
+      </c>
+      <c r="E40">
+        <v>0.1202901269365196</v>
+      </c>
+      <c r="F40">
+        <v>0.03125175848269077</v>
+      </c>
+      <c r="G40">
+        <v>0.01241507212212755</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02769221763931188</v>
+        <v>0.02239210610704314</v>
       </c>
       <c r="C41">
-        <v>-0.01412858832868978</v>
+        <v>0.01108281987503765</v>
       </c>
       <c r="D41">
-        <v>0.01184695429503253</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.02930161547213118</v>
+      </c>
+      <c r="E41">
+        <v>0.07569737044798931</v>
+      </c>
+      <c r="F41">
+        <v>-0.0004820700653658296</v>
+      </c>
+      <c r="G41">
+        <v>0.02440098540989333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04934443075082059</v>
+        <v>0.03367230281870199</v>
       </c>
       <c r="C43">
-        <v>-0.0342580422504435</v>
+        <v>0.0247531177486047</v>
       </c>
       <c r="D43">
-        <v>0.02967109438999894</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0584513031900112</v>
+      </c>
+      <c r="E43">
+        <v>0.08713581358414155</v>
+      </c>
+      <c r="F43">
+        <v>0.02264340057384767</v>
+      </c>
+      <c r="G43">
+        <v>0.03785861287619181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01913389996029049</v>
+        <v>0.02034463181882535</v>
       </c>
       <c r="C44">
-        <v>-0.06534274528655112</v>
+        <v>0.04765483409512491</v>
       </c>
       <c r="D44">
-        <v>0.01206470302388208</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05304475843336041</v>
+      </c>
+      <c r="E44">
+        <v>0.1094966340952882</v>
+      </c>
+      <c r="F44">
+        <v>-0.01503556248462761</v>
+      </c>
+      <c r="G44">
+        <v>0.02783059526599713</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01746000736640214</v>
+        <v>0.01552305230330671</v>
       </c>
       <c r="C46">
-        <v>-0.0279134136248589</v>
+        <v>0.03088829477143511</v>
       </c>
       <c r="D46">
-        <v>0.00147012591268864</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03677091799307525</v>
+      </c>
+      <c r="E46">
+        <v>0.0873694955941532</v>
+      </c>
+      <c r="F46">
+        <v>-0.01552445314248468</v>
+      </c>
+      <c r="G46">
+        <v>0.0629395836206654</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.0960889642178709</v>
+        <v>0.09577608098352196</v>
       </c>
       <c r="C47">
-        <v>-0.07137200465767438</v>
+        <v>0.08215937414970098</v>
       </c>
       <c r="D47">
-        <v>-0.03778680438771465</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.009106043044547278</v>
+      </c>
+      <c r="E47">
+        <v>0.06638182076224731</v>
+      </c>
+      <c r="F47">
+        <v>0.02449616205663799</v>
+      </c>
+      <c r="G47">
+        <v>0.06448170773555753</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.02560980877007856</v>
+        <v>0.02109010181945555</v>
       </c>
       <c r="C48">
-        <v>-0.01212535855417207</v>
+        <v>0.01599828546842084</v>
       </c>
       <c r="D48">
-        <v>-0.00486440864658464</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.03187697330953634</v>
+      </c>
+      <c r="E48">
+        <v>0.09159340182017782</v>
+      </c>
+      <c r="F48">
+        <v>-0.002941672687564652</v>
+      </c>
+      <c r="G48">
+        <v>0.04277497933756457</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.08593417088092113</v>
+        <v>0.07366093883492499</v>
       </c>
       <c r="C50">
-        <v>-0.09115155826328776</v>
+        <v>0.07788170782743198</v>
       </c>
       <c r="D50">
-        <v>-0.03772703223796366</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.01087300973760621</v>
+      </c>
+      <c r="E50">
+        <v>0.08561709239335487</v>
+      </c>
+      <c r="F50">
+        <v>0.05536854771481104</v>
+      </c>
+      <c r="G50">
+        <v>0.01560551583837891</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.018729092669454</v>
+        <v>0.01426304355348768</v>
       </c>
       <c r="C51">
-        <v>-0.05009879946674745</v>
+        <v>0.03020938440129142</v>
       </c>
       <c r="D51">
-        <v>0.06764044192096581</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.07802686045959131</v>
+      </c>
+      <c r="E51">
+        <v>0.07125464989395264</v>
+      </c>
+      <c r="F51">
+        <v>-0.01222556539698731</v>
+      </c>
+      <c r="G51">
+        <v>0.01155728047607004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.08675030621157576</v>
+        <v>0.100271549114571</v>
       </c>
       <c r="C53">
-        <v>-0.08096808999641565</v>
+        <v>0.08869071266891557</v>
       </c>
       <c r="D53">
-        <v>-0.05835670151052922</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.04773131489778622</v>
+      </c>
+      <c r="E53">
+        <v>0.08753192375686059</v>
+      </c>
+      <c r="F53">
+        <v>0.01933396373321085</v>
+      </c>
+      <c r="G53">
+        <v>0.07484717971299445</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.04246174038106622</v>
+        <v>0.03300149037900938</v>
       </c>
       <c r="C54">
-        <v>-0.03461907245391146</v>
+        <v>0.03291009782808458</v>
       </c>
       <c r="D54">
-        <v>0.02047755207255812</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.05070278604739117</v>
+      </c>
+      <c r="E54">
+        <v>0.08167620355927903</v>
+      </c>
+      <c r="F54">
+        <v>-0.005530869617810427</v>
+      </c>
+      <c r="G54">
+        <v>0.04270882149045756</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.08521198429995089</v>
+        <v>0.09305686248753144</v>
       </c>
       <c r="C55">
-        <v>-0.0576831454159759</v>
+        <v>0.06989222814160821</v>
       </c>
       <c r="D55">
-        <v>-0.05909543154116184</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04783664967561498</v>
+      </c>
+      <c r="E55">
+        <v>0.05268012211135142</v>
+      </c>
+      <c r="F55">
+        <v>0.0316775296846997</v>
+      </c>
+      <c r="G55">
+        <v>0.0369444333458188</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1469711191115087</v>
+        <v>0.1517820868051848</v>
       </c>
       <c r="C56">
-        <v>-0.08791556174295601</v>
+        <v>0.1054267972609995</v>
       </c>
       <c r="D56">
-        <v>-0.06452938105547426</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05644358289090089</v>
+      </c>
+      <c r="E56">
+        <v>0.04693835397251691</v>
+      </c>
+      <c r="F56">
+        <v>0.026685072790612</v>
+      </c>
+      <c r="G56">
+        <v>0.04767780942097381</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.05650754261151924</v>
+        <v>0.04338811906605736</v>
       </c>
       <c r="C58">
-        <v>-0.02213363801661265</v>
+        <v>0.02518481895758576</v>
       </c>
       <c r="D58">
-        <v>0.230053065800002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.2831426987343647</v>
+      </c>
+      <c r="E58">
+        <v>0.3345020271726231</v>
+      </c>
+      <c r="F58">
+        <v>0.1319873697006055</v>
+      </c>
+      <c r="G58">
+        <v>-0.5036543668987831</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1296535987132922</v>
+        <v>0.1464823067091107</v>
       </c>
       <c r="C59">
-        <v>0.2037659167297066</v>
+        <v>-0.191375978871984</v>
       </c>
       <c r="D59">
-        <v>0.04083773971740891</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03859443338976137</v>
+      </c>
+      <c r="E59">
+        <v>0.03113212391707716</v>
+      </c>
+      <c r="F59">
+        <v>-0.02829373502660669</v>
+      </c>
+      <c r="G59">
+        <v>-0.01492125749758295</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2799953756990849</v>
+        <v>0.2571898235478377</v>
       </c>
       <c r="C60">
-        <v>-0.1023386449131723</v>
+        <v>0.09453466920741303</v>
       </c>
       <c r="D60">
-        <v>0.2336099086078314</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2236901183872985</v>
+      </c>
+      <c r="E60">
+        <v>-0.2569042451502869</v>
+      </c>
+      <c r="F60">
+        <v>0.123301773638345</v>
+      </c>
+      <c r="G60">
+        <v>-0.02784737145486627</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.05204436681549373</v>
+        <v>0.04701047642254257</v>
       </c>
       <c r="C61">
-        <v>-0.05492987813698522</v>
+        <v>0.0563837584800566</v>
       </c>
       <c r="D61">
-        <v>0.03971588143709721</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.06064108254605378</v>
+      </c>
+      <c r="E61">
+        <v>0.06348928520979756</v>
+      </c>
+      <c r="F61">
+        <v>0.0005850738740123597</v>
+      </c>
+      <c r="G61">
+        <v>0.04985721047082989</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01850006561981809</v>
+        <v>0.0182647736496476</v>
       </c>
       <c r="C63">
-        <v>-0.03311645907563347</v>
+        <v>0.03037861286347304</v>
       </c>
       <c r="D63">
-        <v>-0.002023573627493172</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.03727017634002019</v>
+      </c>
+      <c r="E63">
+        <v>0.08499617661999391</v>
+      </c>
+      <c r="F63">
+        <v>0.0213764071274587</v>
+      </c>
+      <c r="G63">
+        <v>0.02003166397424253</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.05510731589397579</v>
+        <v>0.05880065508041741</v>
       </c>
       <c r="C64">
-        <v>-0.04969017160663026</v>
+        <v>0.06240716858346828</v>
       </c>
       <c r="D64">
-        <v>0.01963400527628396</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.02455206257875261</v>
+      </c>
+      <c r="E64">
+        <v>0.05534760943974267</v>
+      </c>
+      <c r="F64">
+        <v>-0.0132542719055328</v>
+      </c>
+      <c r="G64">
+        <v>0.07726925811787723</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.0767514999492054</v>
+        <v>0.06350590805697744</v>
       </c>
       <c r="C65">
-        <v>-0.0291442822229691</v>
+        <v>0.0263080522188341</v>
       </c>
       <c r="D65">
-        <v>0.06065017706009664</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.09919051875980055</v>
+      </c>
+      <c r="E65">
+        <v>0.05864318876605455</v>
+      </c>
+      <c r="F65">
+        <v>0.0226212374013266</v>
+      </c>
+      <c r="G65">
+        <v>-0.03680735039202879</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.064455939346322</v>
+        <v>0.05667811998964286</v>
       </c>
       <c r="C66">
-        <v>-0.07991968566070978</v>
+        <v>0.07782245635704428</v>
       </c>
       <c r="D66">
-        <v>0.06165485509950376</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09527790407447338</v>
+      </c>
+      <c r="E66">
+        <v>0.07531380552002097</v>
+      </c>
+      <c r="F66">
+        <v>0.0005357224429329244</v>
+      </c>
+      <c r="G66">
+        <v>0.02752559964295646</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05405099591879356</v>
+        <v>0.04448944757241664</v>
       </c>
       <c r="C67">
-        <v>-0.03325428888005236</v>
+        <v>0.02969387564064686</v>
       </c>
       <c r="D67">
-        <v>-0.01319669592806851</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01437573203665904</v>
+      </c>
+      <c r="E67">
+        <v>0.03192365694978849</v>
+      </c>
+      <c r="F67">
+        <v>0.007187703469194701</v>
+      </c>
+      <c r="G67">
+        <v>-0.004152614470893524</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1364733434580714</v>
+        <v>0.1550905197409942</v>
       </c>
       <c r="C68">
-        <v>0.2808297027112045</v>
+        <v>-0.2394386144084437</v>
       </c>
       <c r="D68">
-        <v>-0.007590924786023773</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.005761836671277439</v>
+      </c>
+      <c r="E68">
+        <v>0.05253918575947707</v>
+      </c>
+      <c r="F68">
+        <v>0.01842312438647592</v>
+      </c>
+      <c r="G68">
+        <v>-0.01506213259011892</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.09556897600801971</v>
+        <v>0.09044758552025428</v>
       </c>
       <c r="C69">
-        <v>-0.07877195350419129</v>
+        <v>0.09145531980361199</v>
       </c>
       <c r="D69">
-        <v>-0.03579735615124262</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.002222264607900019</v>
+      </c>
+      <c r="E69">
+        <v>0.07153658190758833</v>
+      </c>
+      <c r="F69">
+        <v>0.003969160426755177</v>
+      </c>
+      <c r="G69">
+        <v>0.0654965712858898</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1225288512705838</v>
+        <v>0.1482522951598774</v>
       </c>
       <c r="C71">
-        <v>0.2517674812279436</v>
+        <v>-0.2380507032216983</v>
       </c>
       <c r="D71">
-        <v>0.02356093868941771</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01616736936339777</v>
+      </c>
+      <c r="E71">
+        <v>0.06774970917483494</v>
+      </c>
+      <c r="F71">
+        <v>0.02793367092177289</v>
+      </c>
+      <c r="G71">
+        <v>0.04810147362822118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.102339619342293</v>
+        <v>0.1067618846178085</v>
       </c>
       <c r="C72">
-        <v>-0.05311720736450534</v>
+        <v>0.05291883789354601</v>
       </c>
       <c r="D72">
-        <v>0.02696542031812258</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.05907785313123729</v>
+      </c>
+      <c r="E72">
+        <v>0.03960881717253586</v>
+      </c>
+      <c r="F72">
+        <v>0.03822663465977889</v>
+      </c>
+      <c r="G72">
+        <v>0.05688538978194261</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.3550757337412707</v>
+        <v>0.3082380438039454</v>
       </c>
       <c r="C73">
-        <v>-0.0699514011347119</v>
+        <v>0.07319512035858278</v>
       </c>
       <c r="D73">
-        <v>0.5239461889936683</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.45006324301414</v>
+      </c>
+      <c r="E73">
+        <v>-0.5512871672547176</v>
+      </c>
+      <c r="F73">
+        <v>0.1578643856411271</v>
+      </c>
+      <c r="G73">
+        <v>-0.03740857975387769</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1035981033056181</v>
+        <v>0.1092280705289717</v>
       </c>
       <c r="C74">
-        <v>-0.09005733856226293</v>
+        <v>0.08954868986587219</v>
       </c>
       <c r="D74">
-        <v>-0.04413866812869888</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03992852273115961</v>
+      </c>
+      <c r="E74">
+        <v>0.06764726780683855</v>
+      </c>
+      <c r="F74">
+        <v>0.03950848889770022</v>
+      </c>
+      <c r="G74">
+        <v>0.02811342885191107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2493835563087719</v>
+        <v>0.2540331285435809</v>
       </c>
       <c r="C75">
-        <v>-0.09633129589357355</v>
+        <v>0.1263520604392381</v>
       </c>
       <c r="D75">
-        <v>-0.1593167040181487</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1602858928416898</v>
+      </c>
+      <c r="E75">
+        <v>0.01685212956156782</v>
+      </c>
+      <c r="F75">
+        <v>0.002655427158212137</v>
+      </c>
+      <c r="G75">
+        <v>0.03019213458222364</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1162056957197207</v>
+        <v>0.1296808163597922</v>
       </c>
       <c r="C76">
-        <v>-0.08032886168058312</v>
+        <v>0.09087589729325889</v>
       </c>
       <c r="D76">
-        <v>-0.08469673811949156</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.07260465530810785</v>
+      </c>
+      <c r="E76">
+        <v>0.09471958810073033</v>
+      </c>
+      <c r="F76">
+        <v>0.008023104935509858</v>
+      </c>
+      <c r="G76">
+        <v>0.04434125362218091</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.08450068419644882</v>
+        <v>0.06821637509428526</v>
       </c>
       <c r="C77">
-        <v>-0.03731118716197884</v>
+        <v>0.06090708099617106</v>
       </c>
       <c r="D77">
-        <v>0.06833351646874436</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.08807705788719904</v>
+      </c>
+      <c r="E77">
+        <v>0.1183961114979092</v>
+      </c>
+      <c r="F77">
+        <v>-0.2202085481155866</v>
+      </c>
+      <c r="G77">
+        <v>-0.1076402734128015</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04596099281554884</v>
+        <v>0.04738294531311879</v>
       </c>
       <c r="C78">
-        <v>-0.0455853806949757</v>
+        <v>0.05565918632632135</v>
       </c>
       <c r="D78">
-        <v>0.06012578892140986</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08924486066236532</v>
+      </c>
+      <c r="E78">
+        <v>0.08087372834188053</v>
+      </c>
+      <c r="F78">
+        <v>0.004641217702553506</v>
+      </c>
+      <c r="G78">
+        <v>0.03734379484869691</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.001337952165040698</v>
+        <v>0.03721101715374073</v>
       </c>
       <c r="C79">
-        <v>0.0001834589141862447</v>
+        <v>0.05354844143669758</v>
       </c>
       <c r="D79">
-        <v>0.006923344367839529</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.08814616511646756</v>
+      </c>
+      <c r="E79">
+        <v>0.08465593529286046</v>
+      </c>
+      <c r="F79">
+        <v>0.04053126173752564</v>
+      </c>
+      <c r="G79">
+        <v>0.2620731907416977</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03717734718777222</v>
+        <v>0.03091243170426925</v>
       </c>
       <c r="C80">
-        <v>-0.04730651970453516</v>
+        <v>0.04721551445457393</v>
       </c>
       <c r="D80">
-        <v>0.03551426536783221</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04194931384119722</v>
+      </c>
+      <c r="E80">
+        <v>0.01616888315479545</v>
+      </c>
+      <c r="F80">
+        <v>-0.05122250787578055</v>
+      </c>
+      <c r="G80">
+        <v>-0.01030251079875462</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1481935644990491</v>
+        <v>0.1432028266055369</v>
       </c>
       <c r="C81">
-        <v>-0.07216357108862823</v>
+        <v>0.0922492281713311</v>
       </c>
       <c r="D81">
-        <v>-0.1379650539898073</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1259809893985809</v>
+      </c>
+      <c r="E81">
+        <v>0.06534580884369892</v>
+      </c>
+      <c r="F81">
+        <v>0.005652564854187759</v>
+      </c>
+      <c r="G81">
+        <v>0.03482493535139654</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.2248833553623472</v>
+        <v>0.2414291809287321</v>
       </c>
       <c r="C82">
-        <v>-0.1093502998514122</v>
+        <v>0.1717334313828561</v>
       </c>
       <c r="D82">
-        <v>-0.2090466989484895</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2491110990600008</v>
+      </c>
+      <c r="E82">
+        <v>-0.08264959216420288</v>
+      </c>
+      <c r="F82">
+        <v>-0.0383332145463872</v>
+      </c>
+      <c r="G82">
+        <v>0.382331939266332</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.04246061435349475</v>
+        <v>0.02868296563994176</v>
       </c>
       <c r="C83">
-        <v>-0.03861228740452397</v>
+        <v>0.04729327195920888</v>
       </c>
       <c r="D83">
-        <v>0.0514656266691824</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.0362432409518791</v>
+      </c>
+      <c r="E83">
+        <v>0.0284285475624036</v>
+      </c>
+      <c r="F83">
+        <v>-0.02507179869919118</v>
+      </c>
+      <c r="G83">
+        <v>0.003414822693319546</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>2.847043914940566e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.002286373781511644</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0004984128832919538</v>
+      </c>
+      <c r="E84">
+        <v>0.009255087698019379</v>
+      </c>
+      <c r="F84">
+        <v>0.002168582203754632</v>
+      </c>
+      <c r="G84">
+        <v>-0.00904442974689758</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1942761931347574</v>
+        <v>0.1847327131303078</v>
       </c>
       <c r="C85">
-        <v>-0.09464109128678998</v>
+        <v>0.1102950500097102</v>
       </c>
       <c r="D85">
-        <v>-0.1500475495550439</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1303195034828155</v>
+      </c>
+      <c r="E85">
+        <v>0.004691418823266917</v>
+      </c>
+      <c r="F85">
+        <v>0.05046314216554883</v>
+      </c>
+      <c r="G85">
+        <v>0.06657494143177797</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01385202688583532</v>
+        <v>0.01738889961236472</v>
       </c>
       <c r="C86">
-        <v>-0.02907084106910864</v>
+        <v>0.01847685141528084</v>
       </c>
       <c r="D86">
-        <v>0.07018233352141526</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.09057670799800606</v>
+      </c>
+      <c r="E86">
+        <v>0.08616373494365762</v>
+      </c>
+      <c r="F86">
+        <v>-0.01984685403680706</v>
+      </c>
+      <c r="G86">
+        <v>0.05671548565385163</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.0352735626307565</v>
+        <v>0.03458873751766879</v>
       </c>
       <c r="C87">
-        <v>-0.00306783398274433</v>
+        <v>0.01679388041663479</v>
       </c>
       <c r="D87">
-        <v>0.08192213066981396</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1075541287467446</v>
+      </c>
+      <c r="E87">
+        <v>0.1323904401026202</v>
+      </c>
+      <c r="F87">
+        <v>-0.05365020958405822</v>
+      </c>
+      <c r="G87">
+        <v>-0.03202939564542354</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1148829574074057</v>
+        <v>0.09665732615104908</v>
       </c>
       <c r="C88">
-        <v>-0.09316991384470732</v>
+        <v>0.07209128602263014</v>
       </c>
       <c r="D88">
-        <v>-0.009308969189368521</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02460918470300286</v>
+      </c>
+      <c r="E88">
+        <v>0.03899118984557663</v>
+      </c>
+      <c r="F88">
+        <v>-0.01198576022878779</v>
+      </c>
+      <c r="G88">
+        <v>0.04465958327468825</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1952968898268294</v>
+        <v>0.2252658911679548</v>
       </c>
       <c r="C89">
-        <v>0.3719113592632305</v>
+        <v>-0.3777356905284845</v>
       </c>
       <c r="D89">
-        <v>-0.01998747885437238</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.003454798679042844</v>
+      </c>
+      <c r="E89">
+        <v>0.07622631788558164</v>
+      </c>
+      <c r="F89">
+        <v>-0.07943956042779016</v>
+      </c>
+      <c r="G89">
+        <v>0.02425017789641003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1844015508854158</v>
+        <v>0.2038403469735516</v>
       </c>
       <c r="C90">
-        <v>0.3298549628182979</v>
+        <v>-0.3065891102738415</v>
       </c>
       <c r="D90">
-        <v>-0.02402488150937357</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.005040107302766677</v>
+      </c>
+      <c r="E90">
+        <v>0.06111962426851759</v>
+      </c>
+      <c r="F90">
+        <v>0.002203875008840646</v>
+      </c>
+      <c r="G90">
+        <v>-0.0147666495781837</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1917246427417706</v>
+        <v>0.1869639385894738</v>
       </c>
       <c r="C91">
-        <v>-0.1287358312251109</v>
+        <v>0.1442897781817772</v>
       </c>
       <c r="D91">
-        <v>-0.147016010940446</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1307243042151497</v>
+      </c>
+      <c r="E91">
+        <v>0.05057883317465463</v>
+      </c>
+      <c r="F91">
+        <v>0.009170372950884381</v>
+      </c>
+      <c r="G91">
+        <v>0.03193707917737387</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1666559922221114</v>
+        <v>0.1839490193852052</v>
       </c>
       <c r="C92">
-        <v>0.2863546176533048</v>
+        <v>-0.2935052819140878</v>
       </c>
       <c r="D92">
-        <v>-0.01575748657245603</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.005734215794189365</v>
+      </c>
+      <c r="E92">
+        <v>0.08837980738655928</v>
+      </c>
+      <c r="F92">
+        <v>-0.03147800232961244</v>
+      </c>
+      <c r="G92">
+        <v>0.03604187015501976</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1997034071431</v>
+        <v>0.2193192258101704</v>
       </c>
       <c r="C93">
-        <v>0.3394622893665517</v>
+        <v>-0.3167851288609032</v>
       </c>
       <c r="D93">
-        <v>-0.03032482567145085</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01570278399512548</v>
+      </c>
+      <c r="E93">
+        <v>0.0356647323185851</v>
+      </c>
+      <c r="F93">
+        <v>0.02300532692295619</v>
+      </c>
+      <c r="G93">
+        <v>0.03618303343385054</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.3569483985112784</v>
+        <v>0.3467408154315399</v>
       </c>
       <c r="C94">
-        <v>-0.1338224157850808</v>
+        <v>0.1802491320084563</v>
       </c>
       <c r="D94">
-        <v>-0.4866449593338673</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4415851641742687</v>
+      </c>
+      <c r="E94">
+        <v>-0.05851258086239931</v>
+      </c>
+      <c r="F94">
+        <v>-0.1058305447974529</v>
+      </c>
+      <c r="G94">
+        <v>-0.6201628547507907</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1106112748439932</v>
+        <v>0.08179819556255509</v>
       </c>
       <c r="C95">
-        <v>-0.04536174105761566</v>
+        <v>0.05729346235687062</v>
       </c>
       <c r="D95">
-        <v>0.2700609074108373</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.2113169053990872</v>
+      </c>
+      <c r="E95">
+        <v>-0.09757948566291844</v>
+      </c>
+      <c r="F95">
+        <v>-0.9017400756273999</v>
+      </c>
+      <c r="G95">
+        <v>0.0191811939806013</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1849417427572496</v>
+        <v>0.1823591152805988</v>
       </c>
       <c r="C98">
-        <v>-0.03252770289947585</v>
+        <v>0.0496854737577785</v>
       </c>
       <c r="D98">
-        <v>0.2221373135061733</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.2080522767657229</v>
+      </c>
+      <c r="E98">
+        <v>-0.1819681062469874</v>
+      </c>
+      <c r="F98">
+        <v>0.1251960644105535</v>
+      </c>
+      <c r="G98">
+        <v>0.01637307419595337</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01133123632183096</v>
+        <v>0.008589338693468262</v>
       </c>
       <c r="C101">
-        <v>-0.02656408899166113</v>
+        <v>0.02629553480896497</v>
       </c>
       <c r="D101">
-        <v>0.006763072089144042</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.0411464030139936</v>
+      </c>
+      <c r="E101">
+        <v>0.0821607421198647</v>
+      </c>
+      <c r="F101">
+        <v>-0.001455651372845258</v>
+      </c>
+      <c r="G101">
+        <v>0.04414834855451619</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1182869494160871</v>
+        <v>0.1204412638742218</v>
       </c>
       <c r="C102">
-        <v>-0.06682933395883744</v>
+        <v>0.1006120707808418</v>
       </c>
       <c r="D102">
-        <v>-0.06198759526244255</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0632877683824868</v>
+      </c>
+      <c r="E102">
+        <v>-0.004479212681177818</v>
+      </c>
+      <c r="F102">
+        <v>-0.02552175816315329</v>
+      </c>
+      <c r="G102">
+        <v>0.05621579718361164</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
